--- a/testcase/TestCase-1.xlsx
+++ b/testcase/TestCase-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
@@ -11,12 +11,12 @@
     <sheet name="Image" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="201">
   <si>
     <t>TC ID</t>
   </si>
@@ -527,9 +527,6 @@
     <t>cho phép sử dụng tiếng Việt có dấu, xuống dòng và các ký tự đặc biệt</t>
   </si>
   <si>
-    <t>Kiểm tra mục hiển thị nội dung</t>
-  </si>
-  <si>
     <t>1. Mở đến Ghi chú
 2. Quan sát</t>
   </si>
@@ -547,14 +544,6 @@
     <t xml:space="preserve">1. Chuyển tới màn hình Ghi chú
 2. Nhập dữ liệu vào mục ghi chú
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Chuyển tới màn hình Ghi chú
-2. quan sát
-</t>
-  </si>
-  <si>
-    <t>Hiển thị mục ghi chú gần nhất</t>
   </si>
   <si>
     <t>Kiểm tra nút lưu</t>
@@ -585,9 +574,6 @@
   <si>
     <t>1. Mở đến lịch sử Ghi chú
 2. Quan sát</t>
-  </si>
-  <si>
-    <t>Hiển thị các ghi chú được sắp xếp riêng biệt, từ mới tới cũ</t>
   </si>
   <si>
     <t>màn hình lịch sử Ghi chú</t>
@@ -813,23 +799,6 @@
 - Video</t>
   </si>
   <si>
-    <t xml:space="preserve">_3 button: menu, lưu, lịch sử
-_4 textview: ghi chú, , nhập ghi chú , nội dung ghi chú
--hiển thị ngày tháng năm theo ngày của thiết bị
-_1 editText
-</t>
-  </si>
-  <si>
-    <t>Giao diện gồm có:
-Listview hiển thị Cách Đánh Giá Chỉ Số BMI
-·        Textbox Nhập Cân Nặng
-·        Textbox Nhập Chiều Cao
-·        Textbox Kết Quả BMI
-·        Textbox Nhận Xét BMI
-·        Button Tính BMI
-Button lịch sử BMI</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Màn hình trang Địa chỉ nguyên liệu sạch gồm có:1 Icon Menu,1 Search chứa:
   +icon tìm kiếm
   +text box
@@ -838,11 +807,38 @@
   +image(cửa hàng thực phẩm sạch)
   +textview(Địa chỉ các cửa hàng thực phẩm sạch)</t>
   </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>màn hình ghi chú sử dụng SQLite nên không cần internet</t>
+  </si>
+  <si>
+    <t>ngày tháng lưu ghi chú là ngày tháng hiện tại nên không có chọn ngày</t>
+  </si>
+  <si>
+    <t>Hiển thị các ghi chú từ mới tới cũ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 textview Nhập Cân Nặng, Nhập Chiều Cao, Kết Quả BMI, Chuẩn đoán BMI
+4 Button Tính BMI, lịch sử BMI, nhập lại ,lưu
+4 Edittext </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_3 button: menu, lưu, xóa
+_2 textview: ghi chú, tiêu đề
+-hiển thị ngày tháng năm theo ngày của thiết bị
+_2 editText
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -967,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1019,7 +1015,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1027,6 +1022,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,23 +1124,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1175,23 +1159,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1370,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="C85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,20 +1382,22 @@
       <c r="I1" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="J1" s="14" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="2" spans="1:71" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -1502,18 +1471,17 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -1590,18 +1558,17 @@
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
@@ -1665,18 +1632,17 @@
       <c r="BS4" s="13"/>
     </row>
     <row r="5" spans="1:71" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="13"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1759,12 +1725,11 @@
         <v>21</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1852,7 +1817,6 @@
       <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -1940,7 +1904,6 @@
       <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -2028,7 +1991,6 @@
       <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -2116,7 +2078,6 @@
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -2204,7 +2165,6 @@
       <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -2292,7 +2252,6 @@
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -2380,7 +2339,6 @@
       <c r="H13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -2444,18 +2402,17 @@
       <c r="BS13" s="13"/>
     </row>
     <row r="14" spans="1:71" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="13"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2543,7 +2500,6 @@
       <c r="H15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -2631,7 +2587,6 @@
       <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -2719,7 +2674,6 @@
       <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
@@ -2807,7 +2761,6 @@
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -2895,7 +2848,6 @@
       <c r="H19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
@@ -2984,6 +2936,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:71" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -3011,6 +2964,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:71" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -3038,6 +2992,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:71" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -3065,19 +3020,21 @@
         <v>8</v>
       </c>
       <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:71" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:71" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -3099,12 +3056,13 @@
         <v>59</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:71" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -3132,6 +3090,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:71" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -3159,6 +3118,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:71" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -3186,6 +3146,7 @@
         <v>9</v>
       </c>
       <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:71" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -3213,6 +3174,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:71" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -3240,19 +3202,21 @@
         <v>8</v>
       </c>
       <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:71" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:71" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -3280,8 +3244,9 @@
         <v>9</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -3307,8 +3272,9 @@
         <v>8</v>
       </c>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -3334,8 +3300,9 @@
         <v>8</v>
       </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -3361,8 +3328,9 @@
         <v>8</v>
       </c>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -3382,27 +3350,29 @@
         <v>79</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>42</v>
       </c>
@@ -3422,14 +3392,15 @@
         <v>91</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>45</v>
       </c>
@@ -3455,8 +3426,9 @@
         <v>8</v>
       </c>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>46</v>
       </c>
@@ -3482,8 +3454,9 @@
         <v>8</v>
       </c>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>47</v>
       </c>
@@ -3509,8 +3482,9 @@
         <v>9</v>
       </c>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>48</v>
       </c>
@@ -3536,8 +3510,9 @@
         <v>8</v>
       </c>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>50</v>
       </c>
@@ -3563,21 +3538,23 @@
         <v>8</v>
       </c>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-    </row>
-    <row r="45" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="2"/>
+    </row>
+    <row r="45" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>51</v>
       </c>
@@ -3597,14 +3574,15 @@
         <v>91</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>54</v>
       </c>
@@ -3630,8 +3608,9 @@
         <v>8</v>
       </c>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>55</v>
       </c>
@@ -3657,8 +3636,9 @@
         <v>8</v>
       </c>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>56</v>
       </c>
@@ -3684,21 +3664,23 @@
         <v>8</v>
       </c>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
-    </row>
-    <row r="50" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>59</v>
       </c>
@@ -3718,14 +3700,15 @@
         <v>99</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>62</v>
       </c>
@@ -3751,8 +3734,9 @@
         <v>8</v>
       </c>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>63</v>
       </c>
@@ -3778,8 +3762,9 @@
         <v>8</v>
       </c>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>64</v>
       </c>
@@ -3805,8 +3790,9 @@
         <v>9</v>
       </c>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>65</v>
       </c>
@@ -3832,8 +3818,9 @@
         <v>8</v>
       </c>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>67</v>
       </c>
@@ -3859,21 +3846,23 @@
         <v>8</v>
       </c>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>68</v>
       </c>
@@ -3893,14 +3882,15 @@
         <v>99</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>71</v>
       </c>
@@ -3926,8 +3916,9 @@
         <v>8</v>
       </c>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>72</v>
       </c>
@@ -3953,8 +3944,9 @@
         <v>8</v>
       </c>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>73</v>
       </c>
@@ -3980,21 +3972,23 @@
         <v>8</v>
       </c>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>76</v>
       </c>
@@ -4014,14 +4008,15 @@
         <v>116</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>79</v>
       </c>
@@ -4047,8 +4042,9 @@
         <v>8</v>
       </c>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>80</v>
       </c>
@@ -4074,8 +4070,9 @@
         <v>8</v>
       </c>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>81</v>
       </c>
@@ -4101,8 +4098,9 @@
         <v>9</v>
       </c>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>82</v>
       </c>
@@ -4128,8 +4126,9 @@
         <v>8</v>
       </c>
       <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>84</v>
       </c>
@@ -4155,21 +4154,23 @@
         <v>8</v>
       </c>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>85</v>
       </c>
@@ -4189,14 +4190,15 @@
         <v>116</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>88</v>
       </c>
@@ -4222,8 +4224,9 @@
         <v>8</v>
       </c>
       <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>89</v>
       </c>
@@ -4249,8 +4252,9 @@
         <v>8</v>
       </c>
       <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>90</v>
       </c>
@@ -4276,21 +4280,23 @@
         <v>8</v>
       </c>
       <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>93</v>
       </c>
@@ -4307,17 +4313,20 @@
         <v>128</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>96</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>128</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G75" s="12" t="s">
         <v>18</v>
@@ -4342,9 +4351,14 @@
       <c r="H75" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>97</v>
       </c>
@@ -4361,7 +4375,7 @@
         <v>128</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>131</v>
@@ -4369,9 +4383,14 @@
       <c r="H76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>98</v>
       </c>
@@ -4388,7 +4407,7 @@
         <v>128</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>133</v>
@@ -4396,17 +4415,20 @@
       <c r="H77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I77" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>11</v>
@@ -4423,17 +4445,20 @@
       <c r="H78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+      <c r="I78" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C79" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>11</v>
@@ -4450,229 +4475,259 @@
       <c r="H79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
-        <v>101</v>
-      </c>
-      <c r="B80" s="5" t="s">
+      <c r="I79" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D80" s="4" t="s">
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>102</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>105</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G80" s="12" t="s">
+      <c r="E82" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+      <c r="F82" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="22"/>
-    </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
-        <v>102</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="H82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C83" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I83" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
+        <v>105</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>106</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
-        <v>105</v>
-      </c>
       <c r="B85" s="5" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="C85" s="4">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>106</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="I85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>107</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="E87" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+      <c r="F87" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="22"/>
-    </row>
-    <row r="88" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="G87" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>107</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>155</v>
+        <v>110</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="C88" s="4">
         <v>0.5</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>198</v>
+        <v>152</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I88" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>110</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>16</v>
+        <v>111</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="C89" s="4">
         <v>0.5</v>
@@ -4681,52 +4736,58 @@
         <v>11</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="I89" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>111</v>
-      </c>
-      <c r="B90" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="G90" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="I90" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4">
         <v>0.5</v>
@@ -4735,237 +4796,225 @@
         <v>12</v>
       </c>
       <c r="E91" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>118</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>119</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>120</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>123</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>124</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F91" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="19"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4">
-        <v>117</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="11" t="s">
+      <c r="F98" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>127</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F92" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I92" s="19"/>
-    </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="4">
-        <v>118</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I93" s="19"/>
-    </row>
-    <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>119</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="19"/>
-    </row>
-    <row r="95" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
-      <c r="I95" s="22"/>
-    </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <v>120</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <v>123</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G97" s="12" t="s">
+      <c r="F99" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G99" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
-      <c r="I98" s="22"/>
-    </row>
-    <row r="99" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>124</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="H99" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" ht="57" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <v>127</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="101" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="A94:I94"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A14:I14"/>
@@ -4978,8 +5027,8 @@
     <mergeCell ref="A61:I61"/>
     <mergeCell ref="A68:I68"/>
     <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="A86:I86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4990,7 +5039,7 @@
           <x14:formula1>
             <xm:f>Sheet3!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H30 H43 H55 H67 H3:H4 H6:H13 H15:H23 H26 H33:H36 H39 H46:H48 H51 H58:H60 H63 H70:H72 H75:H80 H100 H89:H94 H97 H83:H86</xm:sqref>
+          <xm:sqref>H30 H43 H55 H67 H3:H4 H6:H13 H15:H23 H26 H33:H36 H39 H46:H48 H51 H58:H60 H63 H70:H72 H99 H88:H93 H96 H82:H85 H75:H79</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
